--- a/NetCoreApp/wwwroot/uploaded/excels/ProductImportTemplate.xlsx
+++ b/NetCoreApp/wwwroot/uploaded/excels/ProductImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoct\Documents\Visual Studio 2017\Projects\TeduCore\TeduCore.WebApp\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CamPTN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Description</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Home Flag</t>
+  </si>
+  <si>
+    <t>âcfsdf</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>trang</t>
+  </si>
+  <si>
+    <t>tram</t>
   </si>
 </sst>
 </file>
@@ -394,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +462,76 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
